--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,12 +275,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +317,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -325,44 +340,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,45 +414,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -441,12 +440,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -455,14 +455,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,187 +470,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,16 +665,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,16 +710,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,31 +748,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,148 +766,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1284,8 +1277,8 @@
   <sheetPr/>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1351,7 +1344,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
@@ -1395,7 +1388,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B10" t="s">
@@ -1527,7 +1520,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B22" t="s">

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,9 +275,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -317,6 +317,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -326,81 +355,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,14 +376,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -431,6 +385,53 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -440,22 +441,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,187 +470,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,6 +661,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -690,6 +699,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,36 +757,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,133 +781,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1421,7 +1421,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B13" t="s">

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -325,12 +325,49 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -339,30 +376,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,6 +407,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -385,53 +424,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -448,14 +440,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,31 +470,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,120 +644,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -627,30 +651,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,30 +661,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -703,26 +679,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -733,6 +689,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -757,7 +728,36 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,133 +781,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1369,7 +1369,7 @@
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -275,8 +275,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -318,12 +318,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -331,71 +369,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -431,6 +424,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -439,23 +439,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,13 +470,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,73 +620,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,12 +644,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -579,78 +651,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,17 +679,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,13 +747,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,145 +769,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1277,8 +1277,8 @@
   <sheetPr/>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1487,7 +1487,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="4" t="s">

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -275,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -318,26 +318,80 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -346,46 +400,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -400,55 +431,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,187 +470,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,13 +679,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,6 +705,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,41 +745,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,133 +781,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1443,7 +1443,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B15" t="s">

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -275,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -318,12 +318,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -332,29 +353,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -362,25 +393,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,17 +408,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,39 +432,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,49 +470,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,133 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,17 +679,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,41 +730,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,133 +781,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1402,7 +1402,7 @@
       <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C11" t="s">
@@ -1596,7 +1596,7 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="A33" s="4" t="s">
         <v>81</v>
       </c>
     </row>

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -275,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -318,52 +318,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,6 +391,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -418,12 +425,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -431,31 +454,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,13 +470,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,169 +542,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,9 +729,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,11 +755,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,31 +781,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,97 +817,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1465,7 +1465,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B17" t="s">

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -276,9 +276,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -318,6 +318,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -325,28 +339,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,14 +371,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,6 +399,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -408,47 +424,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,13 +470,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,55 +608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,109 +626,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,6 +661,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -675,6 +684,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,30 +761,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,133 +781,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1479,7 +1479,7 @@
       <c r="A18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C18" t="s">

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -276,8 +276,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -318,6 +318,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -325,52 +340,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,6 +399,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -407,55 +423,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,97 +470,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,19 +626,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,61 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,15 +661,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -753,6 +744,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,31 +781,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,97 +817,97 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1581,7 +1581,7 @@
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="A30" s="4" t="s">
         <v>78</v>
       </c>
     </row>

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -275,8 +275,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -318,69 +318,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,13 +433,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -449,13 +456,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,61 +470,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,121 +632,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,16 +679,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -727,16 +727,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,34 +781,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,88 +826,88 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1523,7 +1523,7 @@
       <c r="A22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C22" t="s">
@@ -1566,7 +1566,7 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>75</v>
       </c>
     </row>

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -318,12 +318,66 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -331,61 +385,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,14 +432,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -431,31 +447,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,49 +470,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,133 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,17 +664,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,6 +690,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,43 +756,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,133 +781,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1498,7 +1498,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="4" t="s">

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -275,9 +275,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -317,6 +317,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -324,6 +369,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -333,61 +386,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,31 +422,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,12 +440,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -470,187 +470,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,21 +661,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -690,26 +675,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,8 +712,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,8 +721,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,133 +781,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1576,7 +1576,7 @@
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>77</v>
       </c>
     </row>

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -317,15 +317,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -334,36 +371,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,38 +415,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,14 +432,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -438,24 +439,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,37 +470,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,145 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,6 +661,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -679,17 +694,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,32 +727,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,6 +738,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,19 +781,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -802,112 +802,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1504,7 +1504,7 @@
       <c r="B20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>59</v>
       </c>
     </row>

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -318,6 +318,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -332,12 +339,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -346,57 +360,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -439,8 +415,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,7 +432,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,6 +470,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -482,175 +572,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,36 +675,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,11 +712,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,133 +781,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1512,7 +1512,7 @@
       <c r="A21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C21" t="s">

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -314,72 +314,6 @@
       <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,9 +325,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +347,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -417,30 +426,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,187 +470,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,6 +661,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -675,6 +684,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,24 +712,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -723,15 +723,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,6 +744,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,133 +781,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1432,7 +1432,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B14" t="s">

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -277,8 +277,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -314,6 +314,80 @@
       <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,15 +399,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,75 +415,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -426,6 +425,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -433,29 +440,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,187 +470,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,15 +661,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -688,15 +679,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -708,6 +690,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,133 +781,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1601,7 +1601,7 @@
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>82</v>
       </c>
     </row>

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,9 +275,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -317,75 +317,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,9 +341,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,6 +364,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -423,6 +416,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -433,29 +440,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,6 +470,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -482,7 +608,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,157 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,6 +661,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -698,15 +718,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -727,6 +738,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -741,26 +761,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,133 +781,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1526,7 +1526,7 @@
       <c r="B22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>65</v>
       </c>
     </row>

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -275,9 +275,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -317,6 +317,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -328,6 +380,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,18 +408,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,97 +433,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,67 +470,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,115 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,26 +661,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -695,6 +675,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,22 +728,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,17 +751,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,31 +781,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,100 +817,97 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1446,7 +1446,7 @@
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="s">

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -331,6 +331,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -339,22 +369,52 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -364,37 +424,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,37 +454,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,187 +470,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,6 +661,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -679,32 +690,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,8 +717,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,22 +747,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,145 +769,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1435,7 +1435,7 @@
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C14" t="s">

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -317,6 +317,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -332,22 +347,39 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,14 +387,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,75 +408,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -455,7 +418,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,187 +470,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,17 +661,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -694,7 +683,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,8 +706,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,15 +738,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -761,6 +752,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,133 +781,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1534,7 +1534,7 @@
       <c r="A23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C23" t="s">

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,9 +275,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -317,30 +317,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,47 +384,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,46 +408,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,181 +470,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,15 +675,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,11 +705,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,6 +723,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,9 +753,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,133 +781,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1347,7 +1347,7 @@
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -317,6 +317,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -325,14 +362,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,36 +381,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,53 +417,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,13 +470,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,169 +620,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,6 +661,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -750,17 +761,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,133 +781,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1606,7 +1606,7 @@
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
     </row>

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -275,9 +275,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -317,8 +317,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -326,7 +385,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,53 +393,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,22 +414,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -416,8 +422,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,23 +446,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,19 +470,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,163 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,17 +661,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -686,6 +675,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,16 +707,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,15 +738,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -761,6 +752,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -769,145 +769,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1482,7 +1482,7 @@
       <c r="B18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
     </row>

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,14 +273,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,344 +312,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -663,255 +342,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,58 +364,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1269,26 +662,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.125" customWidth="1"/>
     <col min="2" max="2" width="32.375" customWidth="1"/>
     <col min="3" max="3" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1299,7 +692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1310,7 +703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1321,7 +714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1332,7 +725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1343,7 +736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1354,7 +747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1365,8 +758,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1376,7 +769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1387,7 +780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1398,7 +791,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1409,7 +802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1420,7 +813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
@@ -1431,7 +824,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1442,7 +835,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -1453,7 +846,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1464,7 +857,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1475,7 +868,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1486,7 +879,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -1497,7 +890,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
@@ -1508,7 +901,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1519,7 +912,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>63</v>
       </c>
@@ -1530,7 +923,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>66</v>
       </c>
@@ -1541,7 +934,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -1549,7 +942,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
@@ -1557,7 +950,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -1565,88 +958,82 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="12540"/>
+    <workbookView windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,8 +273,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,27 +320,349 @@
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -342,9 +670,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -368,10 +938,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -662,26 +1279,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="34.125" customWidth="1"/>
     <col min="2" max="2" width="32.375" customWidth="1"/>
     <col min="3" max="3" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +1309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -703,7 +1320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -714,7 +1331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -725,7 +1342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -736,7 +1353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -747,7 +1364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -758,7 +1375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -769,7 +1386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -780,7 +1397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -791,7 +1408,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -802,7 +1419,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -813,7 +1430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
@@ -824,7 +1441,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -835,7 +1452,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -846,7 +1463,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -857,7 +1474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -868,7 +1485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -879,7 +1496,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -890,7 +1507,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
@@ -901,7 +1518,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -912,7 +1529,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>63</v>
       </c>
@@ -923,7 +1540,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
         <v>66</v>
       </c>
@@ -934,15 +1551,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
@@ -950,7 +1567,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -958,82 +1575,88 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,14 +273,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,344 +319,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -670,255 +349,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,58 +374,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1279,26 +672,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.125" customWidth="1"/>
     <col min="2" max="2" width="32.375" customWidth="1"/>
     <col min="3" max="3" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1320,7 +713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1331,7 +724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1342,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1353,7 +746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1364,7 +757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1375,7 +768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1386,7 +779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1397,7 +790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1408,8 +801,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1419,7 +812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1430,7 +823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
@@ -1441,7 +834,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1452,7 +845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -1463,7 +856,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1474,7 +867,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1485,7 +878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1496,7 +889,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -1507,7 +900,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
@@ -1518,7 +911,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1529,7 +922,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>63</v>
       </c>
@@ -1540,7 +933,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>66</v>
       </c>
@@ -1551,7 +944,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>69</v>
       </c>
@@ -1559,7 +952,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
@@ -1567,7 +960,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -1575,88 +968,82 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="12540"/>
+    <workbookView windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,8 +273,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,29 +325,344 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -349,13 +670,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,14 +937,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -672,26 +1279,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="34.125" customWidth="1"/>
     <col min="2" max="2" width="32.375" customWidth="1"/>
     <col min="3" max="3" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,18 +1309,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -724,7 +1331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -735,7 +1342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -746,7 +1353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -757,7 +1364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -768,8 +1375,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -779,7 +1386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -790,7 +1397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -801,8 +1408,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -812,7 +1419,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -823,7 +1430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
@@ -834,7 +1441,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -845,7 +1452,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -856,7 +1463,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -867,7 +1474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -878,7 +1485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -889,7 +1496,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -900,7 +1507,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
@@ -911,7 +1518,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -922,7 +1529,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>63</v>
       </c>
@@ -933,7 +1540,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
         <v>66</v>
       </c>
@@ -944,7 +1551,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
         <v>69</v>
       </c>
@@ -952,7 +1559,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
@@ -960,7 +1567,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -968,82 +1575,88 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,14 +273,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,344 +319,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -670,255 +349,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,58 +374,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1279,26 +672,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.125" customWidth="1"/>
     <col min="2" max="2" width="32.375" customWidth="1"/>
     <col min="3" max="3" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1320,7 +713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1331,7 +724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1342,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1353,7 +746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1364,18 +757,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1386,7 +779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1397,7 +790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1408,7 +801,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
@@ -1419,7 +812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1430,7 +823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
@@ -1441,7 +834,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1452,7 +845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -1463,7 +856,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1474,7 +867,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1485,7 +878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1496,7 +889,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -1507,7 +900,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
@@ -1518,7 +911,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1529,7 +922,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>63</v>
       </c>
@@ -1540,7 +933,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>66</v>
       </c>
@@ -1551,7 +944,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>69</v>
       </c>
@@ -1559,7 +952,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
@@ -1567,7 +960,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -1575,88 +968,82 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="12540"/>
+    <workbookView windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,8 +273,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,29 +325,344 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -349,13 +670,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,14 +937,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -672,26 +1279,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="34.125" customWidth="1"/>
     <col min="2" max="2" width="32.375" customWidth="1"/>
     <col min="3" max="3" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +1309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -713,7 +1320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -724,7 +1331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -735,7 +1342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -746,7 +1353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -757,18 +1364,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -779,7 +1386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -790,7 +1397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -801,8 +1408,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -812,7 +1419,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -823,7 +1430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
@@ -834,7 +1441,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -845,7 +1452,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -856,7 +1463,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -867,7 +1474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -878,7 +1485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -889,7 +1496,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -900,7 +1507,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
@@ -911,7 +1518,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -922,7 +1529,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>63</v>
       </c>
@@ -933,7 +1540,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
         <v>66</v>
       </c>
@@ -944,7 +1551,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
         <v>69</v>
       </c>
@@ -952,7 +1559,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
@@ -960,7 +1567,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -968,82 +1575,88 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
   <si>
     <t>Linux Boxes</t>
   </si>
@@ -268,19 +268,155 @@
   </si>
   <si>
     <t>doctor</t>
+  </si>
+  <si>
+    <t>APT [Windows]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated Boxes for December 2021: </t>
+  </si>
+  <si>
+    <t>SneakyMailer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luanne</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ready</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delivery</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ophiuchi</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScriptKiddie</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armageddon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knife</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pit</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Previse </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forge</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Horizontall</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shibboleth</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Omni</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worker</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Love</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intelligence</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>APT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atom [Windows]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BreadCrumbs [Windows] </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitors [Linux]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynstr [Linux]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PivotAPI [Windows]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pikaboo [Linux]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monteverde [Windows]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Writer [Linux]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forge [Linux]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stacked [Linux]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object [Windows]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precise [Linux]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,345 +460,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF92D050"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -670,255 +502,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,58 +527,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1279,26 +834,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.125" customWidth="1"/>
     <col min="2" max="2" width="32.375" customWidth="1"/>
     <col min="3" max="3" width="47.25" customWidth="1"/>
+    <col min="4" max="4" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1308,8 +865,11 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1319,8 +879,11 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1330,8 +893,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1341,8 +907,11 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1353,7 +922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1364,7 +933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1375,7 +944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1386,7 +955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1397,7 +966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1408,7 +977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1419,7 +988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1430,7 +999,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
@@ -1441,7 +1010,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1452,7 +1021,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -1463,7 +1032,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1474,7 +1043,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1485,7 +1054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1496,7 +1065,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -1507,7 +1076,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
@@ -1518,7 +1087,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1529,7 +1098,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>63</v>
       </c>
@@ -1540,7 +1109,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>66</v>
       </c>
@@ -1551,112 +1120,237 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="B24" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="C24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="B25" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="C25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>73</v>
       </c>
+      <c r="B26" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="C26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="C30" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="C31" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="C32" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="C33" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="C34" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="C35" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -508,7 +508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -538,6 +538,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,8 +846,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1276,7 +1279,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="10" t="s">
         <v>93</v>
       </c>
     </row>

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -847,7 +847,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1264,7 +1264,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="9" t="s">
         <v>90</v>
       </c>
     </row>

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -847,7 +847,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1269,7 +1269,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="9" t="s">
         <v>91</v>
       </c>
     </row>

--- a/HackTheBox VM list.xlsx
+++ b/HackTheBox VM list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>Linux Boxes</t>
   </si>
@@ -409,6 +409,10 @@
   </si>
   <si>
     <t>Precise [Linux]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Writer [Linux]</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +420,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +489,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -508,7 +520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,6 +553,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,7 +862,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1119,7 +1134,7 @@
       <c r="B23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1234,7 +1249,7 @@
         <v>83</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
